--- a/data/trans_dic/P31_2_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P31_2_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,21 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza una actividad física ligera &lt;= 2 días a la semana respecto a las últimas 2 semanas</t>
+          <t>Población que realiza una actividad física ligera &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,05%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +552,29 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -618,6 +682,15 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>86,93%</t>
+          <t>86,9%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>86,94%</t>
+          <t>87,03%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>90,63%</t>
+          <t>90,51%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>85,42%</t>
+          <t>80,18%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>88,33%</t>
+          <t>89,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>90,49%</t>
+          <t>85,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>86,14%</t>
+          <t>85,47%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>87,66%</t>
+          <t>88,29%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>90,55%</t>
+          <t>90,41%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>85,31%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>88,41%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>89,7%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>86,15%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>87,69%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>90,46%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>82,84%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>89,03%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>87,83%</t>
         </is>
       </c>
     </row>
@@ -685,47 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>83,95; 89,6</t>
+          <t>83,9; 89,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>84,04; 89,43</t>
+          <t>84,18; 89,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,34; 92,87</t>
+          <t>87,43; 92,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>82,6; 87,84</t>
+          <t>76,42; 84,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>85,94; 90,43</t>
+          <t>87,3; 91,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>88,43; 92,41</t>
+          <t>82,99; 88,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>84,22; 88,08</t>
+          <t>82,64; 87,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>85,75; 89,39</t>
+          <t>85,69; 90,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>88,81; 92,09</t>
+          <t>88,4; 92,35</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>81,89; 88,06</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>85,89; 90,72</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>87,75; 91,72</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>84,1; 87,91</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>86,1; 89,42</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>88,6; 92,02</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>80,56; 85,31</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>87,23; 90,77</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>85,88; 89,44</t>
         </is>
       </c>
     </row>
@@ -742,47 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>88,33%</t>
+          <t>87,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>89,3%</t>
+          <t>89,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>89,17%</t>
+          <t>88,92%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>87,52%</t>
+          <t>82,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>88,22%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>90,54%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>87,38%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>89,32%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>91,36%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>88,01%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>91,65%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>88,04%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>87,55%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
           <t>89,36%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>91,34%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>87,92%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>89,33%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>90,25%</t>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>90,14%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>85,3%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>89,85%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>89,35%</t>
         </is>
       </c>
     </row>
@@ -795,47 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,82; 90,89</t>
+          <t>84,44; 90,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,1; 92,0</t>
+          <t>86,38; 92,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>84,77; 91,97</t>
+          <t>84,67; 91,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>84,44; 90,28</t>
+          <t>76,73; 86,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>86,25; 91,78</t>
+          <t>81,9; 92,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>88,82; 93,33</t>
+          <t>85,7; 93,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>85,68; 89,92</t>
+          <t>84,17; 90,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>87,12; 91,07</t>
+          <t>86,06; 91,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>87,86; 91,9</t>
+          <t>88,56; 93,39</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>84,76; 90,78</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>87,43; 94,57</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>80,96; 92,48</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>85,52; 89,61</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>87,1; 91,09</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>87,78; 92,02</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>82,41; 87,91</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>86,19; 92,55</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>85,92; 92,2</t>
         </is>
       </c>
     </row>
@@ -852,47 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>92,12%</t>
+          <t>91,1%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>90,68%</t>
+          <t>90,69%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>90,12%</t>
+          <t>89,99%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>89,61%</t>
+          <t>85,99%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>92,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>88,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>90,89%</t>
+          <t>88,76%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>91,68%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>89,38%</t>
+          <t>88,94%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>85,57%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>89,95%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>91,6%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>89,47%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>85,78%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>85,7; 96,14</t>
+          <t>84,49; 95,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,4; 94,8</t>
+          <t>84,63; 94,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82,44; 94,9</t>
+          <t>81,73; 94,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>83,82; 93,51</t>
+          <t>77,1; 92,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>87,78; 96,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>82,64; 93,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>86,95; 94,18</t>
+          <t>82,77; 93,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>87,89; 94,5</t>
+          <t>88,38; 95,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>85,06; 92,86</t>
+          <t>83,32; 93,38</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>76,02; 90,97</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>85,82; 93,12</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>88,06; 94,29</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>85,3; 93,19</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>79,36; 90,44</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>88,13%</t>
+          <t>87,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>88,35%</t>
+          <t>88,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>89,98%</t>
+          <t>89,81%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>86,71%</t>
+          <t>81,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>89,22%</t>
+          <t>89,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>87,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>86,58%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>89,17%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>90,6%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>87,4%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>88,79%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>90,3%</t>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>86,4%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>89,11%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>89,34%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>87,15%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>88,81%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>90,21%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>84,16%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>89,21%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>88,18%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>85,97; 89,73</t>
+          <t>85,76; 89,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,44; 90,11</t>
+          <t>86,3; 90,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>87,62; 91,81</t>
+          <t>87,6; 91,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>84,76; 88,41</t>
+          <t>78,97; 84,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>87,59; 90,69</t>
+          <t>86,9; 91,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>89,27; 92,25</t>
+          <t>84,53; 89,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>86,14; 88,76</t>
+          <t>84,61; 88,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>87,56; 89,95</t>
+          <t>87,43; 90,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>89,04; 91,53</t>
+          <t>89,15; 92,02</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>84,26; 88,34</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>86,86; 90,85</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>87,22; 91,33</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>85,81; 88,3</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>87,59; 89,91</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>88,68; 91,31</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>82,26; 85,79</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>87,63; 90,68</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>86,58; 89,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza una actividad física ligera &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,05%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>491.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>586.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>615.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>402.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>610.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>546.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>587.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>717.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>779.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>521.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>764.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>769.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1078.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1303.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1394.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>923.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1374.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1315.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1419630</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1412011</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1484911</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1260539</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>204385</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>185298</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1536675</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1564604</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1640720</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1447886</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>210319</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>204731</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2956305</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2976614</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>3125631</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2708425</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>414705</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>390029</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1370609; 1461702</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1365766; 1452910</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1434402; 1521833</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1201397; 1320945</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>198979; 209299</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>179133; 191332</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1485650; 1579415</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1518458; 1599444</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1604266; 1676046</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1389927; 1494593</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>204313; 215802</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>200266; 209330</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2885870; 3016797</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>2922561; 3035349</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>3061339; 3179621</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>2633864; 2789057</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>406347; 422805</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>381369; 397185</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>393.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>461.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>469.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>334.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>443.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>567.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>576.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>428.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>836.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1028.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1045.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>762.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>425.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>413.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1192610</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1216745</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1224567</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1076924</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>63775</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>63920</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1203613</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1212887</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1252378</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1184416</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>59896</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>56558</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2396222</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2429631</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2476945</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2261341</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>123671</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>120478</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1147943; 1232496</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1175674; 1253671</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1166031; 1262730</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1001423; 1130092</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>59203; 66686</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>60504; 66219</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1159405; 1240728</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1168606; 1244785</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1213868; 1280200</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1140622; 1221568</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>57141; 61801</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>52006; 59408</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2340578; 2452678</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2368128; 2476646</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2412054; 2528608</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2184730; 2330291</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>118629; 127389</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>115853; 124314</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>288.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>382728</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>378832</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>380471</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>345460</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>359634</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>373944</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>366328</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>332404</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>742363</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>752777</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>746798</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>677863</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>354928; 402195</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>353525; 394568</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>345557; 399775</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>309738; 369793</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>335364; 380542</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>357125; 386990</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>343180; 384646</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>295318; 353402</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>708280; 768482</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>723650; 774899</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>712040; 777891</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>627088; 714681</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>989.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1179.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1214.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>817.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>821.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>764.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1153.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1440.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1508.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1049.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>978.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>964.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>2142.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>2619.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>2722.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>1866.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>1799.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>1728.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2994968</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3007588</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3089948</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2682923</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>268160</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>249219</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3099923</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3151435</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3259425</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2964707</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>270215</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>261289</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>6094890</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>6159022</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>6349374</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>5647630</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>538375</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>510508</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2927079; 3056716</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2935160; 3067055</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3014114; 3150161</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2589579; 2775085</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>260897; 274171</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>242138; 255511</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3029277; 3162244</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3089856; 3206078</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3206979; 3310405</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2891368; 3031138</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>263383; 275477</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>255098; 267117</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>6001613; 6175478</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>6074559; 6235178</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>6241682; 6426308</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>5520081; 5756561</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>528803; 547194</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>501214; 518902</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
